--- a/data/clean/Energy_renewable _UE2.xlsx
+++ b/data/clean/Energy_renewable _UE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryramirez/Ironhack/week_5/Mid-bootcamp-project/data/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608AD145-BDE4-AD46-BD68-C6F8D572FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E32C99-230D-464A-9687-D8B4F50CE31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37660" yWindow="-2060" windowWidth="37080" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -130,12 +127,6 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Kosovo (under United Nations Security Council Resolution 1244/99)</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
@@ -176,6 +167,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,72 +637,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B9" s="10">
         <v>12.47</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>25.515000000000001</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8">
         <v>6.6050000000000004</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9">
         <v>11.153</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8">
         <v>13.176</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9">
         <v>10.813000000000001</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8">
         <v>25.388999999999999</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9">
         <v>12.881</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8">
         <v>6.2450000000000001</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>33.478000000000002</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8">
         <v>19.943000000000001</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9">
         <v>2.855</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8">
         <v>13.972</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="11">
         <v>1.85</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="8">
         <v>4.524</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="9">
         <v>31.552</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8">
         <v>10.337</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="9">
         <v>24.603000000000002</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8">
         <v>21.742999999999999</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="9">
         <v>20.937000000000001</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="8">
         <v>10.348000000000001</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="9">
         <v>32.531999999999996</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="8">
         <v>47.631999999999998</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="9">
         <v>72.298000000000002</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="8">
         <v>64.638000000000005</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="9">
         <v>4.3920000000000003</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="8">
         <v>40.648000000000003</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="9">
         <v>16.407</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="8">
         <v>31.187000000000001</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="9">
         <v>19.117999999999999</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B39" s="8">
         <v>17.995000000000001</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B40" s="9">
         <v>17.597999999999999</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" s="8">
         <v>22.081</v>
